--- a/Excel/DaftarKontak/SupplierDataExcel.xlsx
+++ b/Excel/DaftarKontak/SupplierDataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>namasupplier</t>
   </si>
@@ -74,6 +74,51 @@
     <t>emailpj</t>
   </si>
   <si>
+    <t>namasupplier_edit</t>
+  </si>
+  <si>
+    <t>telepon_edit</t>
+  </si>
+  <si>
+    <t>kode_edit</t>
+  </si>
+  <si>
+    <t>tenggat_edit</t>
+  </si>
+  <si>
+    <t>nik_edit</t>
+  </si>
+  <si>
+    <t>npwp_edit</t>
+  </si>
+  <si>
+    <t>nomorponsel_edit</t>
+  </si>
+  <si>
+    <t>email_edit</t>
+  </si>
+  <si>
+    <t>pkp_edit</t>
+  </si>
+  <si>
+    <t>catatan_edit</t>
+  </si>
+  <si>
+    <t>jenisalamat_edit</t>
+  </si>
+  <si>
+    <t>alamatlengkap_edit</t>
+  </si>
+  <si>
+    <t>namapj_edit</t>
+  </si>
+  <si>
+    <t>teleponpj_edit</t>
+  </si>
+  <si>
+    <t>emailpj_edit</t>
+  </si>
+  <si>
     <t>Tumirah Ponimin</t>
   </si>
   <si>
@@ -117,6 +162,48 @@
   </si>
   <si>
     <t>pjtumirah@mail.com</t>
+  </si>
+  <si>
+    <t>Pumirah Tonimin</t>
+  </si>
+  <si>
+    <t>034177880088</t>
+  </si>
+  <si>
+    <t>TP01_EDIT</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1111222299</t>
+  </si>
+  <si>
+    <t>33333444499</t>
+  </si>
+  <si>
+    <t>pumirah_edit@mail.com</t>
+  </si>
+  <si>
+    <t>ini test pkp (Edit)</t>
+  </si>
+  <si>
+    <t>Catatan supplier tumirah (Edit)</t>
+  </si>
+  <si>
+    <t>Rumah 1 (Edit)</t>
+  </si>
+  <si>
+    <t>Jl. Alamat Lengkap 1 (Edit)</t>
+  </si>
+  <si>
+    <t>PJ Pumirah</t>
+  </si>
+  <si>
+    <t>034544667799</t>
+  </si>
+  <si>
+    <t>pjpumirah_edit@mail.com</t>
   </si>
 </sst>
 </file>
@@ -732,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +836,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1284,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1301,9 +1391,12 @@
     <col min="8" max="8" width="18.6363636363636" customWidth="1"/>
     <col min="10" max="11" width="11.2727272727273" customWidth="1"/>
     <col min="12" max="12" width="19.3636363636364" customWidth="1"/>
+    <col min="15" max="15" width="20.3636363636364" customWidth="1"/>
+    <col min="16" max="16" width="22.0909090909091" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,52 +1442,142 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" s="2" customFormat="1" spans="1:30">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1402,6 +1585,9 @@
     <hyperlink ref="D2" r:id="rId1" display="5" tooltip="mailto:tumirah@gmail.com"/>
     <hyperlink ref="O2" r:id="rId2" display="pjtumirah@mail.com" tooltip="mailto:pjtumirah@mail.com"/>
     <hyperlink ref="H2" r:id="rId3" display="tumirah@mail.com"/>
+    <hyperlink ref="S2" r:id="rId1" display="59" tooltip="mailto:tumirah@gmail.com"/>
+    <hyperlink ref="AD2" r:id="rId4" display="pjpumirah_edit@mail.com" tooltip="mailto:pjpumirah_edit@mail.com"/>
+    <hyperlink ref="W2" r:id="rId5" display="pumirah_edit@mail.com" tooltip="mailto:pumirah_edit@mail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
